--- a/_resource/excel/K-框架-全局常量-(框架定义,策划填写).xlsx
+++ b/_resource/excel/K-框架-全局常量-(框架定义,策划填写).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F41" authorId="1" shapeId="0">
+    <comment ref="F40" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>#constant</t>
   </si>
@@ -151,12 +151,6 @@
   </si>
   <si>
     <t>Service(int)</t>
-  </si>
-  <si>
-    <t>签到时间</t>
-  </si>
-  <si>
-    <t>signinresettime</t>
   </si>
   <si>
     <t>聊天的时间间隔(单位:毫秒)</t>
@@ -728,11 +722,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -845,27 +839,21 @@
       <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="16">
-        <v>2000</v>
-      </c>
+      <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="10"/>
     </row>
@@ -909,7 +897,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="16"/>
@@ -933,7 +921,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
@@ -949,7 +937,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="C17" s="16"/>
@@ -1013,13 +1001,13 @@
       <c r="E24" s="16"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="10"/>
+    <row r="25" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18"/>
@@ -1070,7 +1058,7 @@
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="18"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="19"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -1109,21 +1097,21 @@
       <c r="E36" s="18"/>
       <c r="F36" s="20"/>
     </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="21"/>
+    <row r="37" spans="1:6" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="22"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="16"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
@@ -1134,12 +1122,10 @@
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="16"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="10"/>
+      <c r="A40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="25"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="24"/>
@@ -1202,9 +1188,6 @@
       <c r="F50" s="25"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -1212,9 +1195,6 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F53" s="25"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F54" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
